--- a/Ej1/Mediciones/ej1-ca-impedancia.xlsx
+++ b/Ej1/Mediciones/ej1-ca-impedancia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Ej1\Mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Documents\GitHub\TC_TP2\Ej1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>frecuencia en KHz</t>
   </si>
   <si>
     <t>Vin</t>
-  </si>
-  <si>
-    <t>Vout</t>
   </si>
   <si>
     <t>R</t>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>corriente (ef)</t>
+  </si>
+  <si>
+    <t>V resistencia</t>
   </si>
 </sst>
 </file>
@@ -359,19 +359,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,19 +384,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,18 +422,35 @@
         <v>0.52173999999999998</v>
       </c>
       <c r="D2">
-        <f>(B2-C2)/(2*$F$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" t="e">
+        <f>C2/(2*$F$2)</f>
+        <v>5.2173999999999999E-5</v>
+      </c>
+      <c r="E2">
         <f>B2/(2*D2)</f>
-        <v>#DIV/0!</v>
+        <v>5000</v>
       </c>
       <c r="F2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K2">
+        <f>J2/(2*E$2)</f>
+        <v>4.8199999999999999E-5</v>
+      </c>
+      <c r="L2">
+        <f>I2/(2*K2)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -424,15 +461,32 @@
         <v>0.52</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D29" si="0">(B3-C3)/(2*$F$2)</f>
-        <v>2.0000000000000018E-7</v>
+        <f t="shared" ref="D3:D24" si="0">C3/(2*$F$2)</f>
+        <v>5.2000000000000004E-5</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="1">B3/(2*D3)</f>
-        <v>1304999.9999999988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5019.2307692307695</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K31" si="2">J3/(2*E$2)</f>
+        <v>4.8199999999999999E-5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L31" si="3">I3/(2*K3)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -444,14 +498,31 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>4.0000000000000035E-7</v>
+        <v>3.82E-5</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>482499.99999999959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5052.3560209424086</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>4.8199999999999999E-5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>5020.7468879668049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -463,14 +534,31 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>9.0000000000000081E-7</v>
+        <v>3.7700000000000002E-5</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>214444.44444444426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5119.363395225464</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>4.7700000000000001E-5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>5083.8574423480086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -482,14 +570,31 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.7000000000000015E-6</v>
+        <v>3.6900000000000002E-5</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>113529.41176470579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5230.3523035230346</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>5212.7659574468089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -501,14 +606,31 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.8000000000000024E-6</v>
+        <v>3.5899999999999998E-5</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>69107.142857142797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5389.9721448467972</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>9.0999999999999993E-6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>5384.6153846153857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -520,14 +642,31 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4.0000000000000032E-6</v>
+        <v>3.4699999999999996E-5</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>48374.999999999964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5576.3688760806926</v>
+      </c>
+      <c r="H8">
+        <v>250</v>
+      </c>
+      <c r="I8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J8">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>5632.1839080459777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -539,14 +678,31 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>4.7999999999999989E-6</v>
+        <v>3.0499999999999999E-5</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>36770.833333333343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5786.8852459016389</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>8.1000000000000004E-6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>5987.6543209876545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -558,14 +714,31 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6.1999999999999999E-6</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>28467.741935483871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6065.2920962199314</v>
+      </c>
+      <c r="H10">
+        <v>350</v>
+      </c>
+      <c r="I10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>7.6000000000000001E-6</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>6381.5789473684208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -577,14 +750,31 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7.6999999999999957E-6</v>
+        <v>2.7700000000000002E-5</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>22987.012987012997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6389.8916967509012</v>
+      </c>
+      <c r="H11">
+        <v>400</v>
+      </c>
+      <c r="I11">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>6.9000000000000009E-6</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>7028.9855072463761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -596,14 +786,31 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>3.1999999999999999E-6</v>
+        <v>1.3000000000000001E-5</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>25312.500000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6230.7692307692305</v>
+      </c>
+      <c r="H12">
+        <v>420</v>
+      </c>
+      <c r="I12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000001E-6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>7058.8235294117649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53</v>
       </c>
@@ -615,14 +822,31 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.5000000000000004E-6</v>
+        <v>1.27E-5</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>23142.857142857141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6377.9527559055123</v>
+      </c>
+      <c r="H13">
+        <v>440</v>
+      </c>
+      <c r="I13">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000003E-6</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>7272.7272727272721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>54</v>
       </c>
@@ -634,14 +858,31 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>3.5000000000000004E-6</v>
+        <v>1.27E-5</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>23142.857142857141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6377.9527559055123</v>
+      </c>
+      <c r="H14">
+        <v>460</v>
+      </c>
+      <c r="I14">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J14">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>7578.1250000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55</v>
       </c>
@@ -653,14 +894,31 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3.6000000000000003E-6</v>
+        <v>1.26E-5</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6428.5714285714294</v>
+      </c>
+      <c r="H15">
+        <v>480</v>
+      </c>
+      <c r="I15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>7661.2903225806449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>56</v>
       </c>
@@ -672,14 +930,31 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>3.7000000000000006E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>21891.89189189189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6480</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="I16">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J16">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K16">
+        <f>J16/(2*E$2)</f>
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="L16">
+        <f>I16/(2*K16)</f>
+        <v>7822.5806451612907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>57</v>
       </c>
@@ -691,14 +966,31 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>3.8000000000000005E-6</v>
+        <v>1.24E-5</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>21315.78947368421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6532.2580645161297</v>
+      </c>
+      <c r="H17">
+        <v>550</v>
+      </c>
+      <c r="I17">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J17">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>6.1E-6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>7950.8196721311479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58</v>
       </c>
@@ -710,14 +1002,31 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>3.9000000000000008E-6</v>
+        <v>1.2299999999999999E-5</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>20769.230769230766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6585.3658536585372</v>
+      </c>
+      <c r="H18">
+        <v>600</v>
+      </c>
+      <c r="I18">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J18">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>7822.5806451612907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>59</v>
       </c>
@@ -729,14 +1038,31 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>4.0000000000000007E-6</v>
+        <v>1.22E-5</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>20249.999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6639.3442622950824</v>
+      </c>
+      <c r="H19">
+        <v>700</v>
+      </c>
+      <c r="I19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J19">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000001E-6</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>7205.8823529411766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60</v>
       </c>
@@ -748,14 +1074,31 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>4.1000000000000006E-6</v>
+        <v>1.2099999999999999E-5</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>19756.097560975606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6694.2148760330583</v>
+      </c>
+      <c r="H20">
+        <v>800</v>
+      </c>
+      <c r="I20">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J20">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>7.2999999999999996E-6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>6712.3287671232883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>65</v>
       </c>
@@ -767,14 +1110,31 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>4.5000000000000001E-6</v>
+        <v>1.1700000000000001E-5</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6923.0769230769229</v>
+      </c>
+      <c r="H21">
+        <v>900</v>
+      </c>
+      <c r="I21">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J21">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>7.6999999999999991E-6</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>6363.6363636363649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>70</v>
       </c>
@@ -786,14 +1146,31 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>4.9000000000000005E-6</v>
+        <v>1.13E-5</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>16530.612244897959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7168.141592920354</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.08</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>6125.0000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>75</v>
       </c>
@@ -805,14 +1182,31 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>5.2000000000000002E-6</v>
+        <v>1.1E-5</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>15576.923076923076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7363.636363636364</v>
+      </c>
+      <c r="H23">
+        <v>1500</v>
+      </c>
+      <c r="I23">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J23">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>8.7999999999999988E-6</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>5568.1818181818189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80</v>
       </c>
@@ -824,60 +1218,155 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>5.5000000000000007E-6</v>
+        <v>1.0699999999999999E-5</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>14727.272727272726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7570.0934579439263</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
+      </c>
+      <c r="I24">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.09</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>5388.8888888888887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D25:D29" si="4">(B25-C25)/(2*$F$2)</f>
         <v>0</v>
       </c>
       <c r="E25" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>3000</v>
+      </c>
+      <c r="I25">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>9.0999999999999993E-6</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>5274.7252747252751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>4000</v>
+      </c>
+      <c r="I26">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.09</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>5333.333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29" t="e">
         <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Ej1/Mediciones/ej1-ca-impedancia.xlsx
+++ b/Ej1/Mediciones/ej1-ca-impedancia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>frecuencia en KHz</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>V resistencia</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:U137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,9 +377,13 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +417,26 @@
       <c r="L1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -449,8 +474,28 @@
         <f>I2/(2*K2)</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>170</v>
+      </c>
+      <c r="P2">
+        <v>1.95</v>
+      </c>
+      <c r="Q2">
+        <v>1.95</v>
+      </c>
+      <c r="R2">
+        <f>Q2/($U$2*2)</f>
+        <v>1.95E-5</v>
+      </c>
+      <c r="S2">
+        <f>P2/(2*R2)</f>
+        <v>50000</v>
+      </c>
+      <c r="U2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -485,8 +530,25 @@
         <f t="shared" ref="L3:L31" si="3">I3/(2*K3)</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>1.95</v>
+      </c>
+      <c r="Q3">
+        <v>1.95</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="4">Q3/($U$2*2)</f>
+        <v>1.95E-5</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="5">P3/(2*R3)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -521,8 +583,25 @@
         <f t="shared" si="3"/>
         <v>5020.7468879668049</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>250</v>
+      </c>
+      <c r="P4">
+        <v>1.95</v>
+      </c>
+      <c r="Q4">
+        <v>1.94</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>1.9400000000000001E-5</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>50257.731958762881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -557,8 +636,25 @@
         <f t="shared" si="3"/>
         <v>5083.8574423480086</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="P5">
+        <v>1.95</v>
+      </c>
+      <c r="Q5">
+        <v>1.93</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>1.9299999999999998E-5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>50518.13471502591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -593,8 +689,25 @@
         <f t="shared" si="3"/>
         <v>5212.7659574468089</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>350</v>
+      </c>
+      <c r="P6">
+        <v>0.97</v>
+      </c>
+      <c r="Q6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>50732.217573221758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -629,8 +742,25 @@
         <f t="shared" si="3"/>
         <v>5384.6153846153857</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>400</v>
+      </c>
+      <c r="P7">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>9.3600000000000002E-6</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>51869.658119658117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -665,8 +795,25 @@
         <f t="shared" si="3"/>
         <v>5632.1839080459777</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>450</v>
+      </c>
+      <c r="P8">
+        <v>0.97</v>
+      </c>
+      <c r="Q8">
+        <v>0.878</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>8.7800000000000006E-6</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>55239.179954441905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -701,8 +848,25 @@
         <f t="shared" si="3"/>
         <v>5987.6543209876545</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>500</v>
+      </c>
+      <c r="P9">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>5.1800000000000004E-6</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>56274.131274131265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -737,8 +901,25 @@
         <f t="shared" si="3"/>
         <v>6381.5789473684208</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>600</v>
+      </c>
+      <c r="P10">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q10">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>5.2500000000000006E-6</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>55428.57142857142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -773,8 +954,25 @@
         <f t="shared" si="3"/>
         <v>7028.9855072463761</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>650</v>
+      </c>
+      <c r="P11">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000003E-6</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>52321.428571428565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -809,8 +1007,25 @@
         <f t="shared" si="3"/>
         <v>7058.8235294117649</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>700</v>
+      </c>
+      <c r="P12">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>5.5000000000000007E-6</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>52909.090909090897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53</v>
       </c>
@@ -845,8 +1060,25 @@
         <f t="shared" si="3"/>
         <v>7272.7272727272721</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>750</v>
+      </c>
+      <c r="P13">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>5.5700000000000009E-6</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>52154.398563734278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>54</v>
       </c>
@@ -881,8 +1113,16 @@
         <f t="shared" si="3"/>
         <v>7578.1250000000009</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55</v>
       </c>
@@ -917,8 +1157,16 @@
         <f t="shared" si="3"/>
         <v>7661.2903225806449</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>56</v>
       </c>
@@ -953,8 +1201,16 @@
         <f>I16/(2*K16)</f>
         <v>7822.5806451612907</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>57</v>
       </c>
@@ -989,8 +1245,16 @@
         <f t="shared" si="3"/>
         <v>7950.8196721311479</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>58</v>
       </c>
@@ -1025,8 +1289,16 @@
         <f t="shared" si="3"/>
         <v>7822.5806451612907</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>59</v>
       </c>
@@ -1061,8 +1333,16 @@
         <f t="shared" si="3"/>
         <v>7205.8823529411766</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60</v>
       </c>
@@ -1097,8 +1377,16 @@
         <f t="shared" si="3"/>
         <v>6712.3287671232883</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1133,8 +1421,16 @@
         <f t="shared" si="3"/>
         <v>6363.6363636363649</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>70</v>
       </c>
@@ -1169,8 +1465,16 @@
         <f t="shared" si="3"/>
         <v>6125.0000000000009</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>75</v>
       </c>
@@ -1205,8 +1509,16 @@
         <f t="shared" si="3"/>
         <v>5568.1818181818189</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80</v>
       </c>
@@ -1241,10 +1553,18 @@
         <f t="shared" si="3"/>
         <v>5388.8888888888887</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D25">
-        <f t="shared" ref="D25:D29" si="4">(B25-C25)/(2*$F$2)</f>
+        <f t="shared" ref="D25:D29" si="6">(B25-C25)/(2*$F$2)</f>
         <v>0</v>
       </c>
       <c r="E25" t="e">
@@ -1268,10 +1588,18 @@
         <f t="shared" si="3"/>
         <v>5274.7252747252751</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E26" t="e">
@@ -1295,10 +1623,18 @@
         <f t="shared" si="3"/>
         <v>5333.333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S26" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" t="e">
@@ -1313,10 +1649,18 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S27" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E28" t="e">
@@ -1331,10 +1675,18 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E29" t="e">
@@ -1349,8 +1701,16 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S29" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K30">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1359,8 +1719,16 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K31">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1368,6 +1736,1026 @@
       <c r="L31" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S31" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S41" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S43" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S44" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S45" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S48" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S49" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S51" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S52" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S54" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S55" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S56" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S57" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S59" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S61" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S62" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S63" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S64" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S65" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S66" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="7">Q67/($U$2*2)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" t="e">
+        <f t="shared" ref="S67:S125" si="8">P67/(2*R67)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S68" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S69" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S70" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S71" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S72" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S73" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S74" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S75" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S76" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S77" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S78" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S79" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S80" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S81" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S82" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S83" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S84" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S85" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S86" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S87" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S88" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S89" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S90" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S91" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S92" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S93" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S94" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S95" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S96" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S97" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S98" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S99" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S100" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S101" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S102" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S103" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S104" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S105" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S106" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S107" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S108" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S109" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S110" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S111" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S112" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S113" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S114" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S115" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S116" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S117" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S118" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S119" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S120" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S121" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S122" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S123" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S124" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S125" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <f t="shared" ref="R131:R137" si="9">Q131/($U$2*2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ej1/Mediciones/ej1-ca-impedancia.xlsx
+++ b/Ej1/Mediciones/ej1-ca-impedancia.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,13 +1113,22 @@
         <f t="shared" si="3"/>
         <v>7578.1250000000009</v>
       </c>
+      <c r="O14">
+        <v>800</v>
+      </c>
+      <c r="P14">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q14">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="R14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.7299999999999993E-6</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>50785.340314136127</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1157,13 +1166,22 @@
         <f t="shared" si="3"/>
         <v>7661.2903225806449</v>
       </c>
+      <c r="O15">
+        <v>850</v>
+      </c>
+      <c r="P15">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="R15">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S15" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.7299999999999993E-6</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>50785.340314136127</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1201,13 +1219,22 @@
         <f>I16/(2*K16)</f>
         <v>7822.5806451612907</v>
       </c>
+      <c r="O16">
+        <v>900</v>
+      </c>
+      <c r="P16">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q16">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.7299999999999993E-6</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>50785.340314136127</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1245,13 +1272,22 @@
         <f t="shared" si="3"/>
         <v>7950.8196721311479</v>
       </c>
+      <c r="O17">
+        <v>1000</v>
+      </c>
+      <c r="P17">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="Q17">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S17" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.7299999999999993E-6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>50698.080279232112</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1289,13 +1325,22 @@
         <f t="shared" si="3"/>
         <v>7822.5806451612907</v>
       </c>
+      <c r="O18">
+        <v>1100</v>
+      </c>
+      <c r="P18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q18">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="R18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.7299999999999993E-6</v>
+      </c>
+      <c r="S18">
+        <f>Q18/(2*R18)</f>
+        <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1333,13 +1378,22 @@
         <f t="shared" si="3"/>
         <v>7205.8823529411766</v>
       </c>
+      <c r="O19">
+        <v>1400</v>
+      </c>
+      <c r="P19">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="Q19">
+        <v>0.57199999999999995</v>
+      </c>
       <c r="R19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.7199999999999994E-6</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>50611.888111888111</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1377,13 +1431,22 @@
         <f t="shared" si="3"/>
         <v>6712.3287671232883</v>
       </c>
+      <c r="O20">
+        <v>1600</v>
+      </c>
+      <c r="P20">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q20">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="R20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S20" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>50614.035087719298</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1421,13 +1484,22 @@
         <f t="shared" si="3"/>
         <v>6363.6363636363649</v>
       </c>
+      <c r="O21">
+        <v>2000</v>
+      </c>
+      <c r="P21">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="Q21">
+        <v>0.56699999999999995</v>
+      </c>
       <c r="R21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.6699999999999991E-6</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>50529.100529100535</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1465,13 +1537,22 @@
         <f t="shared" si="3"/>
         <v>6125.0000000000009</v>
       </c>
+      <c r="O22">
+        <v>2.5</v>
+      </c>
+      <c r="P22">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q22">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="R22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.6000000000000006E-6</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>50446.428571428558</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
